--- a/Tables/t5_robust_or.xlsx
+++ b/Tables/t5_robust_or.xlsx
@@ -24,6 +24,9 @@
     <t>Used male condom at most recent sex (0/1)</t>
   </si>
   <si>
+    <t>Discussed contraceptive use with recent partner (0/1)</t>
+  </si>
+  <si>
     <t>Can identify a female condom (0/1)</t>
   </si>
   <si>
@@ -39,9 +42,6 @@
     <t>Used a female condom at most recent sex (0/1)</t>
   </si>
   <si>
-    <t>Discussed contraceptive use with recent partner (0/1)</t>
-  </si>
-  <si>
     <t>Logit, Clustered SEs</t>
   </si>
   <si>
@@ -51,6 +51,9 @@
     <t>0.98</t>
   </si>
   <si>
+    <t>0.94</t>
+  </si>
+  <si>
     <t>1.23*</t>
   </si>
   <si>
@@ -63,15 +66,15 @@
     <t>2.02</t>
   </si>
   <si>
-    <t>0.94</t>
-  </si>
-  <si>
     <t>95% CI</t>
   </si>
   <si>
     <t>(0.77, 1.23)</t>
   </si>
   <si>
+    <t>(0.72, 1.24)</t>
+  </si>
+  <si>
     <t>(1.00, 1.52)</t>
   </si>
   <si>
@@ -87,9 +90,6 @@
     <t>(0.66, 6.22)</t>
   </si>
   <si>
-    <t>(0.72, 1.24)</t>
-  </si>
-  <si>
     <t>GEE, Binomial</t>
   </si>
   <si>
@@ -108,6 +108,9 @@
     <t>(0.79, 1.23)</t>
   </si>
   <si>
+    <t>(0.71, 1.25)</t>
+  </si>
+  <si>
     <t>(0.99, 1.55)</t>
   </si>
   <si>
@@ -120,9 +123,6 @@
     <t>(0.72, 5.74)</t>
   </si>
   <si>
-    <t>(0.71, 1.25)</t>
-  </si>
-  <si>
     <t>HLM Logit, Ward Intercepts</t>
   </si>
   <si>
@@ -135,6 +135,9 @@
     <t>(0.78, 1.21)</t>
   </si>
   <si>
+    <t>(0.72, 1.28)</t>
+  </si>
+  <si>
     <t>(0.98, 1.55)</t>
   </si>
   <si>
@@ -145,9 +148,6 @@
   </si>
   <si>
     <t>(0.67, 6.07)</t>
-  </si>
-  <si>
-    <t>(0.72, 1.28)</t>
   </si>
 </sst>
 </file>
@@ -274,13 +274,13 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
@@ -291,22 +291,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -314,22 +314,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -343,10 +343,10 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -366,7 +366,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
@@ -389,13 +389,13 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>44</v>
